--- a/teaching/traditional_assets/database/data/indonesia/indonesia_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/indonesia/indonesia_insurance_prop_cas.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09405000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="E2">
-        <v>0.05255</v>
+        <v>-0.0471</v>
       </c>
       <c r="G2">
-        <v>0.1436142725315288</v>
+        <v>0.08506218135035974</v>
       </c>
       <c r="H2">
-        <v>0.1436142725315288</v>
+        <v>0.08506218135035974</v>
       </c>
       <c r="I2">
-        <v>0.1416887111657952</v>
+        <v>0.05796445418592461</v>
       </c>
       <c r="J2">
-        <v>0.1261656376701783</v>
+        <v>0.04920230452675968</v>
       </c>
       <c r="K2">
-        <v>40.713</v>
+        <v>12.948</v>
       </c>
       <c r="L2">
-        <v>0.1252322362350046</v>
+        <v>0.0616953352075094</v>
       </c>
       <c r="M2">
-        <v>8.010999999999999</v>
+        <v>5.348</v>
       </c>
       <c r="N2">
-        <v>0.01551406936886341</v>
+        <v>0.04788253200823708</v>
       </c>
       <c r="O2">
-        <v>0.196767617223</v>
+        <v>0.4130367624343528</v>
       </c>
       <c r="P2">
-        <v>8.010999999999999</v>
+        <v>5.348</v>
       </c>
       <c r="Q2">
-        <v>0.01551406936886341</v>
+        <v>0.04788253200823708</v>
       </c>
       <c r="R2">
-        <v>0.196767617223</v>
+        <v>0.4130367624343528</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>20.43</v>
+        <v>10.973</v>
       </c>
       <c r="V2">
-        <v>0.03956465325251273</v>
+        <v>0.09824514280598085</v>
       </c>
       <c r="W2">
-        <v>0.07327806122448979</v>
+        <v>0.05364028213166144</v>
       </c>
       <c r="X2">
-        <v>0.05493222883871902</v>
+        <v>0.0522719173994006</v>
       </c>
       <c r="Y2">
-        <v>0.01834583238577077</v>
+        <v>0.001368364732260846</v>
       </c>
       <c r="Z2">
-        <v>0.5966823652922111</v>
+        <v>1.382515497058688</v>
       </c>
       <c r="AA2">
-        <v>0.08194388270901984</v>
+        <v>0.04305590897374717</v>
       </c>
       <c r="AB2">
-        <v>0.0548170175160578</v>
+        <v>0.0522719173994006</v>
       </c>
       <c r="AC2">
-        <v>0.02718931173625463</v>
+        <v>-0.00921600842565343</v>
       </c>
       <c r="AD2">
-        <v>12.243</v>
+        <v>1.302</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>12.243</v>
+        <v>1.302</v>
       </c>
       <c r="AG2">
-        <v>-8.187000000000001</v>
+        <v>-9.671000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.02316061088168471</v>
+        <v>0.01152293967714529</v>
       </c>
       <c r="AI2">
-        <v>0.01770388826146747</v>
+        <v>0.008443470253304108</v>
       </c>
       <c r="AJ2">
-        <v>-0.01611033820493799</v>
+        <v>-0.09479606739920997</v>
       </c>
       <c r="AK2">
-        <v>-0.0121991378501087</v>
+        <v>-0.06752124220653639</v>
       </c>
       <c r="AL2">
-        <v>1.178</v>
+        <v>0.171</v>
       </c>
       <c r="AM2">
-        <v>1.178</v>
+        <v>0.171</v>
       </c>
       <c r="AN2">
-        <v>0.2253451131971286</v>
+        <v>0.08651162790697675</v>
       </c>
       <c r="AO2">
-        <v>39.10271646859083</v>
+        <v>71.14035087719299</v>
       </c>
       <c r="AP2">
-        <v>-0.1506902263942573</v>
+        <v>-0.642591362126246</v>
       </c>
       <c r="AQ2">
-        <v>39.10271646859083</v>
+        <v>71.14035087719299</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PT Asuransi Dayin Mitra Tbk (IDX:ASDM)</t>
+          <t>PT Lippo General Insurance Tbk (IDX:LPGI)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0451</v>
+        <v>0.0603</v>
       </c>
       <c r="E3">
-        <v>-0.00168</v>
+        <v>-0.0171</v>
       </c>
       <c r="G3">
-        <v>0.2202702702702702</v>
+        <v>0.08562577447335812</v>
       </c>
       <c r="H3">
-        <v>0.2202702702702702</v>
+        <v>0.08562577447335812</v>
       </c>
       <c r="I3">
-        <v>0.2331081081081081</v>
+        <v>0.09752168525402725</v>
       </c>
       <c r="J3">
-        <v>0.1863513513513514</v>
+        <v>0.08635387936203381</v>
       </c>
       <c r="K3">
-        <v>2.76</v>
+        <v>7.14</v>
       </c>
       <c r="L3">
-        <v>0.1864864864864865</v>
+        <v>0.08847583643122676</v>
       </c>
       <c r="M3">
-        <v>0.989</v>
+        <v>2.16</v>
       </c>
       <c r="N3">
-        <v>0.06549668874172186</v>
+        <v>0.05901639344262295</v>
       </c>
       <c r="O3">
-        <v>0.3583333333333333</v>
+        <v>0.3025210084033614</v>
       </c>
       <c r="P3">
-        <v>0.989</v>
+        <v>2.16</v>
       </c>
       <c r="Q3">
-        <v>0.06549668874172186</v>
+        <v>0.05901639344262295</v>
       </c>
       <c r="R3">
-        <v>0.3583333333333333</v>
+        <v>0.3025210084033614</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -776,28 +776,28 @@
         <v>1.67</v>
       </c>
       <c r="V3">
-        <v>0.1105960264900662</v>
+        <v>0.04562841530054645</v>
       </c>
       <c r="W3">
-        <v>0.1359605911330049</v>
+        <v>0.1216354344122657</v>
       </c>
       <c r="X3">
-        <v>0.0547545709727652</v>
+        <v>0.0522719173994006</v>
       </c>
       <c r="Y3">
-        <v>0.0812060201602397</v>
+        <v>0.06936351701286515</v>
       </c>
       <c r="Z3">
-        <v>0.7944176060118089</v>
+        <v>1.416037901386208</v>
       </c>
       <c r="AA3">
-        <v>0.148040794417606</v>
+        <v>0.1222803661083722</v>
       </c>
       <c r="AB3">
-        <v>0.0547545709727652</v>
+        <v>0.0522719173994006</v>
       </c>
       <c r="AC3">
-        <v>0.0932862234448408</v>
+        <v>0.07000844870897156</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -818,22 +818,28 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.1243484735666418</v>
+        <v>-0.04780990552533639</v>
       </c>
       <c r="AK3">
-        <v>-0.07756618671620993</v>
+        <v>-0.03266184236260512</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <v>1124.285714285714</v>
+      </c>
       <c r="AP3">
-        <v>-0.4337662337662337</v>
+        <v>-0.1976331360946746</v>
+      </c>
+      <c r="AQ3">
+        <v>1124.285714285714</v>
       </c>
     </row>
     <row r="4">
@@ -853,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.159</v>
+        <v>0.14</v>
       </c>
       <c r="E4">
-        <v>0.107</v>
+        <v>-0.0471</v>
       </c>
       <c r="G4">
-        <v>0.04047619047619048</v>
+        <v>0.05968289920724801</v>
       </c>
       <c r="H4">
-        <v>0.04047619047619048</v>
+        <v>0.05968289920724801</v>
       </c>
       <c r="I4">
-        <v>0.03395989974937343</v>
+        <v>0.0304643261608154</v>
       </c>
       <c r="J4">
-        <v>0.02879384369242291</v>
+        <v>0.02645620189262338</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="L4">
-        <v>0.06265664160401002</v>
+        <v>0.0464326160815402</v>
       </c>
       <c r="M4">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="N4">
-        <v>0.03746312684365782</v>
+        <v>0.02989130434782609</v>
       </c>
       <c r="O4">
-        <v>0.254</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="P4">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="Q4">
-        <v>0.03746312684365782</v>
+        <v>0.02989130434782609</v>
       </c>
       <c r="R4">
-        <v>0.254</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -901,73 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>4.23</v>
+        <v>4.69</v>
       </c>
       <c r="V4">
-        <v>0.1247787610619469</v>
+        <v>0.1274456521739131</v>
       </c>
       <c r="W4">
-        <v>0.1893939393939394</v>
+        <v>0.1339869281045752</v>
       </c>
       <c r="X4">
-        <v>0.05588728296835772</v>
+        <v>0.05350268916404648</v>
       </c>
       <c r="Y4">
-        <v>0.1335066564255817</v>
+        <v>0.08048423894052868</v>
       </c>
       <c r="Z4">
-        <v>3.824403335569826</v>
+        <v>3.175116864437253</v>
       </c>
       <c r="AA4">
-        <v>0.1101192718611784</v>
+        <v>0.08400153279822524</v>
       </c>
       <c r="AB4">
-        <v>0.05525771273242569</v>
+        <v>0.05275673456360992</v>
       </c>
       <c r="AC4">
-        <v>0.05486155912875268</v>
+        <v>0.03124479823461532</v>
       </c>
       <c r="AD4">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AG4">
-        <v>-2.79</v>
+        <v>-3.45</v>
       </c>
       <c r="AH4">
-        <v>0.04074702886247878</v>
+        <v>0.03259726603575184</v>
       </c>
       <c r="AI4">
-        <v>0.0449438202247191</v>
+        <v>0.03719256148770245</v>
       </c>
       <c r="AJ4">
-        <v>-0.08968177434908391</v>
+        <v>-0.103448275862069</v>
       </c>
       <c r="AK4">
-        <v>-0.1003236245954693</v>
+        <v>-0.1204188481675393</v>
       </c>
       <c r="AL4">
-        <v>0.137</v>
+        <v>0.154</v>
       </c>
       <c r="AM4">
-        <v>0.137</v>
+        <v>0.154</v>
       </c>
       <c r="AN4">
-        <v>0.3870967741935484</v>
+        <v>0.3280423280423281</v>
       </c>
       <c r="AO4">
-        <v>19.78102189781022</v>
+        <v>17.46753246753247</v>
       </c>
       <c r="AP4">
-        <v>-0.7500000000000001</v>
+        <v>-0.9126984126984128</v>
       </c>
       <c r="AQ4">
-        <v>19.78102189781022</v>
+        <v>17.46753246753247</v>
       </c>
     </row>
     <row r="5">
@@ -986,41 +992,47 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.09949999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.0102</v>
+      </c>
       <c r="G5">
-        <v>0.23625</v>
+        <v>0.599250936329588</v>
       </c>
       <c r="H5">
-        <v>0.23625</v>
+        <v>0.599250936329588</v>
       </c>
       <c r="I5">
-        <v>0.396875</v>
+        <v>0.2164794007490637</v>
       </c>
       <c r="J5">
-        <v>0.353021408839779</v>
+        <v>0.2120454853120347</v>
       </c>
       <c r="K5">
-        <v>0.483</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="L5">
-        <v>0.1509375</v>
+        <v>0.3044943820224719</v>
       </c>
       <c r="M5">
-        <v>0.892</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="N5">
-        <v>0.06914728682170543</v>
+        <v>0.09749216300940439</v>
       </c>
       <c r="O5">
-        <v>1.846790890269151</v>
+        <v>1.14760147601476</v>
       </c>
       <c r="P5">
-        <v>0.892</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="Q5">
-        <v>0.06914728682170543</v>
+        <v>0.09749216300940439</v>
       </c>
       <c r="R5">
-        <v>1.846790890269151</v>
+        <v>1.14760147601476</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1029,31 +1041,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.09</v>
+        <v>0.229</v>
       </c>
       <c r="V5">
-        <v>0.006976744186046512</v>
+        <v>0.02392894461859979</v>
       </c>
       <c r="W5">
-        <v>0.03864</v>
+        <v>0.06159090909090909</v>
       </c>
       <c r="X5">
-        <v>0.0547545709727652</v>
+        <v>0.0522719173994006</v>
       </c>
       <c r="Y5">
-        <v>-0.0161145709727652</v>
+        <v>0.009318991691508495</v>
       </c>
       <c r="Z5">
-        <v>0.2597191786380976</v>
+        <v>0.2036613272311213</v>
       </c>
       <c r="AA5">
-        <v>0.09168643034553144</v>
+        <v>0.04318546497201622</v>
       </c>
       <c r="AB5">
-        <v>0.0547545709727652</v>
+        <v>0.0522719173994006</v>
       </c>
       <c r="AC5">
-        <v>0.03693185937276623</v>
+        <v>-0.00908645242738438</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1065,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-0.09</v>
+        <v>-0.229</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1074,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.007025761124121779</v>
+        <v>-0.02451557649073975</v>
       </c>
       <c r="AK5">
-        <v>-0.006864988558352403</v>
+        <v>-0.01912956311085122</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1089,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>-0.06976744186046512</v>
+        <v>-0.3669871794871795</v>
       </c>
     </row>
     <row r="6">
@@ -1100,7 +1112,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PT Asuransi Jasa Tania Tbk (IDX:ASJT)</t>
+          <t>PT Asuransi Dayin Mitra Tbk (IDX:ASDM)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1109,46 +1121,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.0375</v>
+        <v>-0.0184</v>
       </c>
       <c r="E6">
-        <v>0.0031</v>
+        <v>-0.189</v>
       </c>
       <c r="G6">
-        <v>0.1567796610169492</v>
+        <v>0.2395161290322581</v>
       </c>
       <c r="H6">
-        <v>0.1567796610169492</v>
+        <v>0.2395161290322581</v>
       </c>
       <c r="I6">
-        <v>0.0797457627118644</v>
+        <v>0.09596774193548387</v>
       </c>
       <c r="J6">
-        <v>0.0797457627118644</v>
+        <v>0.07453261125500353</v>
       </c>
       <c r="K6">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="L6">
-        <v>0.09745762711864406</v>
+        <v>0.08548387096774193</v>
       </c>
       <c r="M6">
-        <v>0.882</v>
+        <v>1.01</v>
       </c>
       <c r="N6">
-        <v>0.1715953307392996</v>
+        <v>0.08211382113821138</v>
       </c>
       <c r="O6">
-        <v>0.7669565217391305</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="P6">
-        <v>0.882</v>
+        <v>1.01</v>
       </c>
       <c r="Q6">
-        <v>0.1715953307392996</v>
+        <v>0.08211382113821138</v>
       </c>
       <c r="R6">
-        <v>0.7669565217391305</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1157,31 +1169,31 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="V6">
-        <v>0.2023346303501946</v>
+        <v>0.09430894308943089</v>
       </c>
       <c r="W6">
-        <v>0.08214285714285714</v>
+        <v>0.04568965517241379</v>
       </c>
       <c r="X6">
-        <v>0.0547545709727652</v>
+        <v>0.0522719173994006</v>
       </c>
       <c r="Y6">
-        <v>0.02738828617009194</v>
+        <v>-0.006582262226986803</v>
       </c>
       <c r="Z6">
-        <v>0.9053939998465435</v>
+        <v>0.575940548072457</v>
       </c>
       <c r="AA6">
-        <v>0.07220133507250824</v>
+        <v>0.04292635297547812</v>
       </c>
       <c r="AB6">
-        <v>0.0547545709727652</v>
+        <v>0.0522719173994006</v>
       </c>
       <c r="AC6">
-        <v>0.01744676409974304</v>
+        <v>-0.009345564423922481</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1193,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>-1.04</v>
+        <v>-1.16</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1202,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.2536585365853659</v>
+        <v>-0.104129263913824</v>
       </c>
       <c r="AK6">
-        <v>-0.0755813953488372</v>
+        <v>-0.05566218809980806</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1217,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>-0.888888888888889</v>
+        <v>-0.7341772151898733</v>
       </c>
     </row>
     <row r="7">
@@ -1228,7 +1240,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PT Asuransi Tugu Pratama Indonesia, Tbk (IDX:TUGU)</t>
+          <t>PT Asuransi Bintang Tbk (IDX:ASBI)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1236,41 +1248,47 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.0737</v>
+      </c>
+      <c r="E7">
+        <v>-0.27</v>
+      </c>
       <c r="G7">
-        <v>0.1862595419847328</v>
+        <v>0.04508771929824561</v>
       </c>
       <c r="H7">
-        <v>0.1862595419847328</v>
+        <v>0.04508771929824561</v>
       </c>
       <c r="I7">
-        <v>0.188295165394402</v>
+        <v>0.01684210526315789</v>
       </c>
       <c r="J7">
-        <v>0.1517383479178303</v>
+        <v>0.009817909703167871</v>
       </c>
       <c r="K7">
-        <v>30.3</v>
+        <v>0.246</v>
       </c>
       <c r="L7">
-        <v>0.1541984732824427</v>
+        <v>0.0143859649122807</v>
       </c>
       <c r="M7">
-        <v>3.73</v>
+        <v>0.145</v>
       </c>
       <c r="N7">
-        <v>0.008446557971014493</v>
+        <v>0.01863753213367609</v>
       </c>
       <c r="O7">
-        <v>0.1231023102310231</v>
+        <v>0.589430894308943</v>
       </c>
       <c r="P7">
-        <v>3.73</v>
+        <v>0.145</v>
       </c>
       <c r="Q7">
-        <v>0.008446557971014493</v>
+        <v>0.01863753213367609</v>
       </c>
       <c r="R7">
-        <v>0.1231023102310231</v>
+        <v>0.589430894308943</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1279,73 +1297,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>11.8</v>
+        <v>2.38</v>
       </c>
       <c r="V7">
-        <v>0.02672101449275362</v>
+        <v>0.3059125964010282</v>
       </c>
       <c r="W7">
-        <v>0.06441326530612246</v>
+        <v>0.01223880597014925</v>
       </c>
       <c r="X7">
-        <v>0.05540068834608142</v>
+        <v>0.0525629996676459</v>
       </c>
       <c r="Y7">
-        <v>0.009012576960041041</v>
+        <v>-0.04032419369749665</v>
       </c>
       <c r="Z7">
-        <v>0.4239848099080827</v>
+        <v>0.919206579583938</v>
       </c>
       <c r="AA7">
-        <v>0.06433475459770781</v>
+        <v>0.009024687196912896</v>
       </c>
       <c r="AB7">
-        <v>0.0550466844586437</v>
+        <v>0.0524619490553973</v>
       </c>
       <c r="AC7">
-        <v>0.009288070139064103</v>
+        <v>-0.0434372618584844</v>
       </c>
       <c r="AD7">
-        <v>10.7</v>
+        <v>0.062</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>10.7</v>
+        <v>0.062</v>
       </c>
       <c r="AG7">
-        <v>-1.100000000000001</v>
+        <v>-2.318</v>
       </c>
       <c r="AH7">
-        <v>0.02365686491266858</v>
+        <v>0.007906146391226727</v>
       </c>
       <c r="AI7">
-        <v>0.01819418466247237</v>
+        <v>0.003153290611331502</v>
       </c>
       <c r="AJ7">
-        <v>-0.002497162315550514</v>
+        <v>-0.4243866715488832</v>
       </c>
       <c r="AK7">
-        <v>-0.001908728093007117</v>
+        <v>-0.1341279944450874</v>
       </c>
       <c r="AL7">
-        <v>1.04</v>
+        <v>0.01</v>
       </c>
       <c r="AM7">
-        <v>1.04</v>
+        <v>0.01</v>
       </c>
       <c r="AN7">
-        <v>0.2471131639722864</v>
+        <v>0.07989690721649484</v>
       </c>
       <c r="AO7">
-        <v>35.57692307692307</v>
+        <v>28.8</v>
       </c>
       <c r="AP7">
-        <v>-0.02540415704387994</v>
+        <v>-2.987113402061856</v>
       </c>
       <c r="AQ7">
-        <v>35.57692307692307</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="8">
@@ -1356,7 +1374,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PT Asuransi Bintang Tbk (IDX:ASBI)</t>
+          <t>PT Asuransi Jasa Tania Tbk (IDX:ASJT)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1365,121 +1383,109 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.143</v>
-      </c>
-      <c r="E8">
-        <v>0.102</v>
+        <v>-0.09</v>
       </c>
       <c r="G8">
-        <v>0.05226315789473684</v>
+        <v>0.03804597701149426</v>
       </c>
       <c r="H8">
-        <v>0.05226315789473684</v>
+        <v>0.03804597701149426</v>
       </c>
       <c r="I8">
-        <v>0.03642105263157894</v>
+        <v>-0.05183908045977012</v>
       </c>
       <c r="J8">
-        <v>0.03642105263157894</v>
+        <v>-0.05183908045977012</v>
       </c>
       <c r="K8">
-        <v>1.02</v>
+        <v>-0.411</v>
       </c>
       <c r="L8">
-        <v>0.05368421052631579</v>
+        <v>-0.04724137931034483</v>
       </c>
       <c r="M8">
-        <v>0.248</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.03208279430789133</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>0.2431372549019608</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.248</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.03208279430789133</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.2431372549019608</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>1.6</v>
+        <v>0.844</v>
       </c>
       <c r="V8">
-        <v>0.2069857697283312</v>
+        <v>0.09768518518518518</v>
       </c>
       <c r="W8">
-        <v>0.05698324022346369</v>
+        <v>-0.02777027027027027</v>
       </c>
       <c r="X8">
-        <v>0.05510988670467284</v>
+        <v>0.0522719173994006</v>
       </c>
       <c r="Y8">
-        <v>0.001873353518790845</v>
+        <v>-0.08004218766967086</v>
       </c>
       <c r="Z8">
-        <v>1.149008224479923</v>
+        <v>0.632267441860465</v>
       </c>
       <c r="AA8">
-        <v>0.04184808901790034</v>
+        <v>-0.03277616279069767</v>
       </c>
       <c r="AB8">
-        <v>0.05487946405935039</v>
+        <v>0.0522719173994006</v>
       </c>
       <c r="AC8">
-        <v>-0.01303137504145005</v>
+        <v>-0.08504808019009827</v>
       </c>
       <c r="AD8">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>-1.497</v>
+        <v>-0.844</v>
       </c>
       <c r="AH8">
-        <v>0.01314949572322226</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.005098252734742364</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>-0.2401732712979304</v>
+        <v>-0.1082606464853771</v>
       </c>
       <c r="AK8">
-        <v>-0.0804708917916465</v>
+        <v>-0.0631925726265349</v>
       </c>
       <c r="AL8">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.103</v>
-      </c>
-      <c r="AO8">
-        <v>691.9999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AP8">
-        <v>-1.497</v>
-      </c>
-      <c r="AQ8">
-        <v>691.9999999999999</v>
+        <v>5.274999999999999</v>
       </c>
     </row>
   </sheetData>
